--- a/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_ChangeStrategy.xlsx
+++ b/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_ChangeStrategy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="108">
   <si>
     <t>TCID</t>
   </si>
@@ -322,9 +322,6 @@
     <t>radiobtnoption</t>
   </si>
   <si>
-    <t>TST3113</t>
-  </si>
-  <si>
     <t>changedprojection</t>
   </si>
   <si>
@@ -344,6 +341,9 @@
   </si>
   <si>
     <t>TST3150</t>
+  </si>
+  <si>
+    <t>TC003</t>
   </si>
 </sst>
 </file>
@@ -723,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC8"/>
+  <dimension ref="A1:BC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView tabSelected="1" topLeftCell="AU3" workbookViewId="0">
+      <selection activeCell="AU5" sqref="A5:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,10 +902,10 @@
         <v>95</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AZ1" s="3" t="s">
         <v>96</v>
@@ -1061,13 +1061,13 @@
       </c>
       <c r="AU2" s="4"/>
       <c r="AV2" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY2" s="6">
         <v>20</v>
@@ -1076,10 +1076,10 @@
         <v>97</v>
       </c>
       <c r="BA2" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BB2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="BC2" s="2"/>
     </row>
@@ -1223,14 +1223,14 @@
         <v>98</v>
       </c>
       <c r="AU3" s="4"/>
-      <c r="AV3" s="4" t="s">
-        <v>100</v>
+      <c r="AV3" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="AW3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY3" s="6">
         <v>20</v>
@@ -1239,268 +1239,188 @@
         <v>97</v>
       </c>
       <c r="BA3" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BB3" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="BC3" s="2"/>
     </row>
-    <row r="4" spans="1:55" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="H4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
+    <row r="4" spans="1:55" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>2500</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="8"/>
+      <c r="AV4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY4" s="6">
+        <v>20</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>105</v>
+      </c>
       <c r="BC4" s="2"/>
-    </row>
-    <row r="5" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="H5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="8"/>
-      <c r="BC5" s="2"/>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="H6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="8"/>
-      <c r="BC6" s="2"/>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="H7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="8"/>
-      <c r="BC7" s="2"/>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="H8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="8"/>
-      <c r="BC8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" display="d@gmail.com"/>
-    <hyperlink ref="B3:B8" r:id="rId2" display="http://preuat.invessence.com:8080/login.xhtml"/>
+    <hyperlink ref="B3:B4" r:id="rId2" display="http://preuat.invessence.com:8080/login.xhtml"/>
     <hyperlink ref="B2" r:id="rId3"/>
     <hyperlink ref="S3" r:id="rId4" display="d@gmail.com"/>
     <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="S4" r:id="rId6" display="d@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_ChangeStrategy.xlsx
+++ b/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_ChangeStrategy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="112">
   <si>
     <t>TCID</t>
   </si>
@@ -344,6 +344,18 @@
   </si>
   <si>
     <t>TC003</t>
+  </si>
+  <si>
+    <t>http://uatbb.invessence.com:8080//login.xhtml</t>
+  </si>
+  <si>
+    <t>bbqa.user</t>
+  </si>
+  <si>
+    <t>TST2828</t>
+  </si>
+  <si>
+    <t>TST2830</t>
   </si>
 </sst>
 </file>
@@ -725,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU3" workbookViewId="0">
-      <selection activeCell="AU5" sqref="A5:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="BB4" sqref="BB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,13 +1100,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1224,7 +1236,7 @@
       </c>
       <c r="AU3" s="4"/>
       <c r="AV3" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AW3" s="4" t="s">
         <v>23</v>
@@ -1251,13 +1263,13 @@
         <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1387,7 +1399,7 @@
       </c>
       <c r="AU4" s="4"/>
       <c r="AV4" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AW4" s="4" t="s">
         <v>23</v>
@@ -1405,22 +1417,21 @@
         <v>103</v>
       </c>
       <c r="BB4" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="BC4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" display="d@gmail.com"/>
-    <hyperlink ref="B3:B4" r:id="rId2" display="http://preuat.invessence.com:8080/login.xhtml"/>
-    <hyperlink ref="B2" r:id="rId3"/>
-    <hyperlink ref="S3" r:id="rId4" display="d@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="S3" r:id="rId3" display="d@gmail.com"/>
+    <hyperlink ref="S4" r:id="rId4" display="d@gmail.com"/>
     <hyperlink ref="B3" r:id="rId5"/>
-    <hyperlink ref="S4" r:id="rId6" display="d@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId7"/>
+    <hyperlink ref="B4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_ChangeStrategy.xlsx
+++ b/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_ChangeStrategy.xlsx
@@ -352,10 +352,10 @@
     <t>bbqa.user</t>
   </si>
   <si>
-    <t>TST2828</t>
-  </si>
-  <si>
     <t>TST2830</t>
+  </si>
+  <si>
+    <t>TST3109</t>
   </si>
 </sst>
 </file>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="BB4" sqref="BB4"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="AV3" sqref="AV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="AU3" s="4"/>
       <c r="AV3" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AW3" s="4" t="s">
         <v>23</v>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="AU4" s="4"/>
       <c r="AV4" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW4" s="4" t="s">
         <v>23</v>
@@ -1417,7 +1417,7 @@
         <v>103</v>
       </c>
       <c r="BB4" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="BC4" s="2"/>
     </row>
